--- a/Coba_Dashboard_POI/file/DATA_PESANAN_DARI_MEJA.xlsx
+++ b/Coba_Dashboard_POI/file/DATA_PESANAN_DARI_MEJA.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
